--- a/biology/Zoologie/Caracal_(genre)/Caracal_(genre).xlsx
+++ b/biology/Zoologie/Caracal_(genre)/Caracal_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caracal est un genre de la sous-famille des félinés. Il ne comprenait auparavant qu'une espèce, le Caracal (aussi appelé Lynx du désert), mais une étude de 2006 montre que le Chat doré d'Afrique fait également partie de ce genre[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caracal est un genre de la sous-famille des félinés. Il ne comprenait auparavant qu'une espèce, le Caracal (aussi appelé Lynx du désert), mais une étude de 2006 montre que le Chat doré d'Afrique fait également partie de ce genre.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Espèces du genre Caracal</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Caracal caracal
 Caracal aurata</t>
